--- a/xlsx/FR/footprint_pc_FR.xlsx
+++ b/xlsx/FR/footprint_pc_FR.xlsx
@@ -12,30 +12,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">Sample: non-weighted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample: weighted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Population</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q4</t>
+    <t xml:space="preserve">India</t>
+  </si>
+  <si>
+    <t xml:space="preserve">China</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 Most</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 Least</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PNR</t>
   </si>
 </sst>
 </file>
@@ -380,61 +386,93 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>0.227501397428731</v>
+        <v>0.170017342061718</v>
       </c>
       <c r="C2" t="n">
-        <v>0.204944555347326</v>
+        <v>0.45539933781517</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2034</v>
+        <v>0.0940598544905629</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.465434842355218</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>0.277808831749581</v>
+        <v>0.217813253649636</v>
       </c>
       <c r="C3" t="n">
-        <v>0.244554338774632</v>
+        <v>0.276156944486792</v>
       </c>
       <c r="D3" t="n">
-        <v>0.239</v>
+        <v>0.255008722649193</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.288349868359918</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>0.279485746226942</v>
+        <v>0.309343009315974</v>
       </c>
       <c r="C4" t="n">
-        <v>0.248694436345023</v>
+        <v>0.19941191344954</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2439</v>
+        <v>0.211544569887668</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.212095153243211</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>0.215204024594746</v>
+        <v>0.302826394972671</v>
       </c>
       <c r="C5" t="n">
-        <v>0.301806669533019</v>
+        <v>0.0690318042484988</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3137</v>
+        <v>0.439386852972576</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.0341201360416536</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.0236335885547652</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.0198270196503407</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.0350182633383656</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.0234531118922145</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/FR/footprint_pc_FR.xlsx
+++ b/xlsx/FR/footprint_pc_FR.xlsx
@@ -395,16 +395,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>0.170017342061718</v>
+        <v>0.185754342477736</v>
       </c>
       <c r="C2" t="n">
-        <v>0.45539933781517</v>
+        <v>0.475777921334208</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0940598544905629</v>
+        <v>0.101094945248099</v>
       </c>
       <c r="E2" t="n">
-        <v>0.465434842355218</v>
+        <v>0.457289494019463</v>
       </c>
     </row>
     <row r="3">
@@ -412,16 +412,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>0.217813253649636</v>
+        <v>0.229223515489194</v>
       </c>
       <c r="C3" t="n">
-        <v>0.276156944486792</v>
+        <v>0.272601020830526</v>
       </c>
       <c r="D3" t="n">
-        <v>0.255008722649193</v>
+        <v>0.257425830067645</v>
       </c>
       <c r="E3" t="n">
-        <v>0.288349868359918</v>
+        <v>0.283972993931301</v>
       </c>
     </row>
     <row r="4">
@@ -429,16 +429,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>0.309343009315974</v>
+        <v>0.281106524917794</v>
       </c>
       <c r="C4" t="n">
-        <v>0.19941191344954</v>
+        <v>0.187973334383086</v>
       </c>
       <c r="D4" t="n">
-        <v>0.211544569887668</v>
+        <v>0.23121542945016</v>
       </c>
       <c r="E4" t="n">
-        <v>0.212095153243211</v>
+        <v>0.218776870120803</v>
       </c>
     </row>
     <row r="5">
@@ -446,16 +446,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>0.302826394972671</v>
+        <v>0.303915617115276</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0690318042484988</v>
+        <v>0.0636477234521802</v>
       </c>
       <c r="D5" t="n">
-        <v>0.439386852972576</v>
+        <v>0.410263795234097</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0341201360416536</v>
+        <v>0.0399606419284327</v>
       </c>
     </row>
     <row r="6">
@@ -463,16 +463,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0236335885547652</v>
+        <v>0.0232547219135536</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0198270196503407</v>
+        <v>0.0177799712973318</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0350182633383656</v>
+        <v>0.0363526536835727</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0234531118922145</v>
+        <v>0.0239446932788166</v>
       </c>
     </row>
   </sheetData>
